--- a/US001 - Client UT v1.0.xlsx
+++ b/US001 - Client UT v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\Java Fresher Program Batch 5 and 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\eclipse-workspace\ClientUS001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Amendment History" sheetId="2" r:id="rId1"/>
@@ -2441,7 +2441,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2796,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2806,18 +2806,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3006,18 +3006,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA4E087A-3192-4DEB-8DD4-4019F6EE3514}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBD418AD-4CE1-4A91-9E25-E9C0AB2B296A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBD418AD-4CE1-4A91-9E25-E9C0AB2B296A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA4E087A-3192-4DEB-8DD4-4019F6EE3514}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
